--- a/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__GBIFList__combined_infos.xlsx
+++ b/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__GBIFList__combined_infos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>PFT Family_Woodiness</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PFT Combined</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,6 +501,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -528,6 +538,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,6 +575,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -592,6 +612,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -624,6 +649,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -656,6 +686,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -688,6 +723,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -720,6 +760,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -752,6 +797,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -784,6 +834,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -816,6 +871,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -848,6 +908,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -880,6 +945,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -912,6 +982,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -944,6 +1019,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -976,6 +1056,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1008,6 +1093,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1040,6 +1130,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1072,6 +1167,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1104,6 +1204,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1136,6 +1241,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1168,6 +1278,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1200,6 +1315,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1232,6 +1352,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1264,6 +1389,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1296,6 +1426,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1328,6 +1463,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1360,6 +1500,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1392,6 +1537,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1424,6 +1574,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1456,6 +1611,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1488,6 +1648,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1520,6 +1685,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1552,6 +1722,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1584,6 +1759,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1616,6 +1796,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1648,6 +1833,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1680,6 +1870,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1712,6 +1907,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1744,6 +1944,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1776,6 +1981,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1808,6 +2018,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1840,6 +2055,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1872,6 +2092,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1904,6 +2129,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1936,6 +2166,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1968,6 +2203,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2000,6 +2240,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2032,6 +2277,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2064,6 +2314,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2096,6 +2351,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2128,6 +2388,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2160,6 +2425,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2192,6 +2462,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2224,6 +2499,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2256,6 +2536,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2288,6 +2573,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2320,6 +2610,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2352,6 +2647,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2384,6 +2684,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2416,6 +2721,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2448,6 +2758,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2480,6 +2795,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2512,6 +2832,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2544,6 +2869,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2576,6 +2906,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2608,6 +2943,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2640,6 +2980,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2672,6 +3017,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2704,6 +3054,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2736,6 +3091,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2768,6 +3128,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2800,6 +3165,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2832,6 +3202,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2864,6 +3239,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2896,6 +3276,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2928,6 +3313,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2960,6 +3350,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2992,6 +3387,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3024,6 +3424,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3056,6 +3461,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3088,6 +3498,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3120,6 +3535,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3152,6 +3572,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3184,6 +3609,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3216,6 +3646,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3248,6 +3683,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3280,6 +3720,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3312,6 +3757,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3344,6 +3794,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3376,6 +3831,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3408,6 +3868,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3440,6 +3905,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3472,6 +3942,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3504,6 +3979,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3536,6 +4016,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3568,6 +4053,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3600,6 +4090,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3632,6 +4127,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3664,6 +4164,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3696,6 +4201,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3728,6 +4238,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3760,6 +4275,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3792,6 +4312,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3824,6 +4349,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3856,6 +4386,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3888,6 +4423,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3920,6 +4460,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3952,6 +4497,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3984,6 +4534,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4016,6 +4571,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4048,6 +4608,11 @@
           <t>legume</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4080,6 +4645,11 @@
           <t>legume</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4112,6 +4682,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4144,6 +4719,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4176,6 +4756,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4208,6 +4793,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4236,6 +4826,11 @@
         </is>
       </c>
       <c r="F119" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -4264,6 +4859,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4296,6 +4896,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4328,6 +4933,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4360,6 +4970,11 @@
           <t>legume</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4392,6 +5007,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4424,6 +5044,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4456,6 +5081,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4488,6 +5118,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4520,6 +5155,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4552,6 +5192,11 @@
           <t>legume</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4584,6 +5229,11 @@
           <t>legume</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4616,6 +5266,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4648,6 +5303,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4680,6 +5340,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4708,6 +5373,11 @@
         </is>
       </c>
       <c r="F134" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -4736,6 +5406,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4768,6 +5443,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4800,6 +5480,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4832,6 +5517,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4864,6 +5554,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4896,6 +5591,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4928,6 +5628,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4960,6 +5665,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4992,6 +5702,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5024,6 +5739,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5056,6 +5776,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5088,6 +5813,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5120,6 +5850,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5152,6 +5887,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5184,6 +5924,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5216,6 +5961,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5248,6 +5998,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5280,6 +6035,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5312,6 +6072,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5344,6 +6109,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5376,6 +6146,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5408,6 +6183,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5440,6 +6220,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5472,6 +6257,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5504,6 +6294,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5536,6 +6331,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5568,6 +6368,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5596,6 +6401,11 @@
         </is>
       </c>
       <c r="F162" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -5624,6 +6434,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5656,6 +6471,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5688,6 +6508,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5720,6 +6545,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5752,6 +6582,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5784,6 +6619,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5816,6 +6656,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5848,6 +6693,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5880,6 +6730,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5912,6 +6767,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5944,6 +6804,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5974,6 +6839,11 @@
       <c r="F174" t="inlineStr">
         <is>
           <t>not assigned</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>legume</t>
         </is>
       </c>
     </row>
@@ -6000,6 +6870,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6032,6 +6907,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6064,6 +6944,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6096,6 +6981,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6128,6 +7018,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6160,6 +7055,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6192,6 +7092,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6224,6 +7129,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6256,6 +7166,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6288,6 +7203,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6320,6 +7240,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6352,6 +7277,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6384,6 +7314,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6416,6 +7351,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6448,6 +7388,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6480,6 +7425,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6512,6 +7462,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6544,6 +7499,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6576,6 +7536,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6608,6 +7573,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6640,6 +7610,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6672,6 +7647,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6704,6 +7684,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6736,6 +7721,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6768,6 +7758,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6800,6 +7795,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6832,6 +7832,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6864,6 +7869,11 @@
           <t>legume</t>
         </is>
       </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6896,6 +7906,11 @@
           <t>legume</t>
         </is>
       </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6928,6 +7943,11 @@
           <t>legume</t>
         </is>
       </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6960,6 +7980,11 @@
           <t>legume</t>
         </is>
       </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6992,6 +8017,11 @@
           <t>legume</t>
         </is>
       </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -7024,6 +8054,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -7056,6 +8091,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -7088,6 +8128,11 @@
           <t>grass</t>
         </is>
       </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -7120,6 +8165,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -7152,6 +8202,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -7184,6 +8239,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -7216,6 +8276,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -7248,6 +8313,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -7280,6 +8350,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -7312,6 +8387,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -7344,6 +8424,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -7372,6 +8457,11 @@
         </is>
       </c>
       <c r="F218" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
         <is>
           <t>forb</t>
         </is>
@@ -7400,6 +8490,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>not assigned</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7432,6 +8527,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7464,6 +8564,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -7496,6 +8601,11 @@
           <t>legume</t>
         </is>
       </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7528,6 +8638,11 @@
           <t>legume</t>
         </is>
       </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7560,6 +8675,11 @@
           <t>legume</t>
         </is>
       </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -7592,6 +8712,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -7624,6 +8749,11 @@
           <t>not assigned</t>
         </is>
       </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7656,6 +8786,11 @@
           <t>legume</t>
         </is>
       </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>legume</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7688,6 +8823,11 @@
           <t>forb</t>
         </is>
       </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>forb</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7716,6 +8856,11 @@
         </is>
       </c>
       <c r="F229" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
         <is>
           <t>grass</t>
         </is>

--- a/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__GBIFList__combined_infos.xlsx
+++ b/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__GBIFList__combined_infos.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Woodiness</t>
+          <t>Family GBIF</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Family GBIF</t>
+          <t>Woodiness Zanne</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -488,12 +488,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Sapindaceae</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>woody</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Sapindaceae</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -525,12 +525,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Sapindaceae</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>woody</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Sapindaceae</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -562,12 +562,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Sapindaceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>woody</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Sapindaceae</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -599,12 +599,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Sapindaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>woody</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Sapindaceae</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -636,12 +636,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Sapindaceae</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sapindaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Rosaceae</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rosaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -747,12 +747,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -784,12 +784,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Amaryllidaceae</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Amaryllidaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Amaryllidaceae</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Amaryllidaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -858,12 +858,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -895,12 +895,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Primulaceae</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Primulaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -932,12 +932,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1006,12 +1006,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1043,12 +1043,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Apiaceae</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1080,12 +1080,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1154,12 +1154,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1191,12 +1191,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1228,12 +1228,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>conflicting</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1302,12 +1302,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1339,12 +1339,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Lamiaceae</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Lamiaceae</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>Betulaceae</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Betulaceae</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1413,12 +1413,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Boraginaceae</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Boraginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1524,12 +1524,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1598,12 +1598,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1635,12 +1635,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>Campanulaceae</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Campanulaceae</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Campanulaceae</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Campanulaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>Campanulaceae</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Campanulaceae</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1857,12 +1857,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1894,12 +1894,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1931,12 +1931,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1968,12 +1968,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2005,12 +2005,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2042,12 +2042,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2116,12 +2116,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2153,12 +2153,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Amaranthaceae</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Amaranthaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2190,12 +2190,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>conflicting</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2301,12 +2301,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2338,12 +2338,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>Ranunculaceae</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>woody</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Ranunculaceae</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2375,12 +2375,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Colchicaceae</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Colchicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2412,12 +2412,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Convolvulaceae</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Convolvulaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2449,12 +2449,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2486,12 +2486,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>Cornaceae</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>woody</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Cornaceae</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2523,12 +2523,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>woody</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Rosaceae</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2560,12 +2560,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2671,12 +2671,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2708,12 +2708,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2745,12 +2745,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2782,12 +2782,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2856,12 +2856,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Onagraceae</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Onagraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2930,12 +2930,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Equisetaceae</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Equisetaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2967,12 +2967,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3041,12 +3041,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Geraniaceae</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Geraniaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3078,12 +3078,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3152,12 +3152,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Apiaceae</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3189,12 +3189,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Polygonaceae</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Polygonaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3226,12 +3226,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3263,12 +3263,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3300,12 +3300,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3337,12 +3337,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3374,12 +3374,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3448,12 +3448,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>Poaceae</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Poaceae</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3485,12 +3485,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Rosaceae</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3522,12 +3522,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Rosaceae</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Rosaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3559,12 +3559,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>Oleaceae</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>woody</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Oleaceae</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3596,12 +3596,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Papaveraceae</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Papaveraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Rubiaceae</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Rubiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3670,12 +3670,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>Rubiaceae</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Rubiaceae</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3707,12 +3707,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>Rubiaceae</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Rubiaceae</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3744,12 +3744,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>Rubiaceae</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Rubiaceae</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Rubiaceae</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Rubiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3818,12 +3818,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Geraniaceae</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Geraniaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Geraniaceae</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Geraniaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3892,12 +3892,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Geraniaceae</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Geraniaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3929,12 +3929,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>Geraniaceae</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Geraniaceae</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3966,12 +3966,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Geraniaceae</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Geraniaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4003,12 +4003,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>Geraniaceae</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Geraniaceae</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4040,12 +4040,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Rosaceae</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Rosaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4077,12 +4077,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Lamiaceae</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Lamiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4114,12 +4114,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4151,12 +4151,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4188,12 +4188,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4225,12 +4225,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4262,12 +4262,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4299,12 +4299,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Hypericaceae</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Hypericaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4336,12 +4336,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4373,12 +4373,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caprifoliaceae</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Caprifoliaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4410,12 +4410,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Lamiaceae</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Lamiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4521,12 +4521,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Lamiaceae</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Lamiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4558,12 +4558,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4632,12 +4632,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4669,12 +4669,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4706,12 +4706,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4743,12 +4743,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4780,12 +4780,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4883,12 +4883,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4920,12 +4920,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4957,12 +4957,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4994,12 +4994,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Fabaceae</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5031,12 +5031,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5068,12 +5068,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Primulaceae</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Primulaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5105,12 +5105,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Malvaceae</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Malvaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5142,12 +5142,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
           <t>conflicting</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5179,12 +5179,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5216,12 +5216,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5253,12 +5253,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Fabaceae</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5290,12 +5290,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Fabaceae</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5327,12 +5327,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Orobanchaceae</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Orobanchaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5364,12 +5364,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5430,12 +5430,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Boraginaceae</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Boraginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5467,12 +5467,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Papaveraceae</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Papaveraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5504,12 +5504,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5541,12 +5541,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5578,12 +5578,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5615,12 +5615,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5652,12 +5652,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Apiaceae</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5689,12 +5689,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5726,12 +5726,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5763,12 +5763,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
+          <t>Plantaginaceae</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5837,12 +5837,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5874,12 +5874,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5911,12 +5911,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5985,12 +5985,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -6022,12 +6022,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Polygonaceae</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Polygonaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6059,12 +6059,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
+          <t>Salicaceae</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
           <t>woody</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Salicaceae</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6096,12 +6096,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Rosaceae</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Rosaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6133,12 +6133,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Lamiaceae</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Lamiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6170,12 +6170,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
           <t>woody</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Rosaceae</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6207,12 +6207,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
           <t>woody</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Rosaceae</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6244,12 +6244,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
           <t>woody</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Rosaceae</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6281,12 +6281,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
+          <t>Ranunculaceae</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Ranunculaceae</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6318,12 +6318,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
+          <t>Ranunculaceae</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Ranunculaceae</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6355,12 +6355,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Ranunculaceae</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Ranunculaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6392,12 +6392,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Ranunculaceae</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Ranunculaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6458,12 +6458,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Orobanchaceae</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Orobanchaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6495,12 +6495,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
           <t>woody</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Rosaceae</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6532,12 +6532,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
+          <t>Rosaceae</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
           <t>woody</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Rosaceae</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6569,12 +6569,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Rosaceae</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Rosaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6606,12 +6606,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Polygonaceae</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Polygonaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6643,12 +6643,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Lamiaceae</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Lamiaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
+          <t>Viburnaceae</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
           <t>woody</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Viburnaceae</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6717,12 +6717,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Rosaceae</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Rosaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6754,12 +6754,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
+          <t>Saxifragaceae</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Saxifragaceae</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6791,12 +6791,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
+          <t>Caprifoliaceae</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Caprifoliaceae</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6828,12 +6828,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Fabaceae</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6894,12 +6894,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6931,12 +6931,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6968,12 +6968,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -7005,12 +7005,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -7042,12 +7042,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7079,12 +7079,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Apiaceae</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7116,12 +7116,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7153,12 +7153,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7190,12 +7190,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7227,12 +7227,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7264,12 +7264,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -7301,12 +7301,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Solanaceae</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Solanaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7338,12 +7338,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7375,12 +7375,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7412,12 +7412,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7449,12 +7449,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7486,12 +7486,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
+          <t>Lamiaceae</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Lamiaceae</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7523,12 +7523,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Caryophyllaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7560,12 +7560,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Caryophyllaceae</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7597,12 +7597,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -7634,12 +7634,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7671,12 +7671,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -7708,12 +7708,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7745,12 +7745,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7782,12 +7782,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7819,12 +7819,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7856,12 +7856,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -7893,12 +7893,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -7930,12 +7930,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7967,12 +7967,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -8004,12 +8004,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -8041,12 +8041,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -8078,12 +8078,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -8115,12 +8115,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -8152,12 +8152,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -8189,12 +8189,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Urticaceae</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Urticaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -8226,12 +8226,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
+          <t>Scrophulariaceae</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Scrophulariaceae</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -8263,12 +8263,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Scrophulariaceae</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Scrophulariaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -8300,12 +8300,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -8337,12 +8337,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -8374,12 +8374,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -8411,12 +8411,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -8448,12 +8448,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -8514,12 +8514,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Plantaginaceae</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Plantaginaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -8551,12 +8551,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -8588,12 +8588,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -8625,12 +8625,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -8662,12 +8662,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -8699,12 +8699,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -8736,12 +8736,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>not assigned</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -8773,12 +8773,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Fabaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -8810,12 +8810,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Violaceae</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Violaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -8847,12 +8847,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>herbaceous</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>herbaceous</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">

--- a/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__GBIFList__combined_infos.xlsx
+++ b/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__GBIFList__combined_infos.xlsx
@@ -806,7 +806,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Aceraceae</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sapindaceae</t>
+          <t>conflicting (Aceraceae vs. Sapindaceae)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Alliaceae</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Amaryllidaceae</t>
+          <t>conflicting (Alliaceae vs. Amaryllidaceae)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>grass</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>grass</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>grass</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Geraniaceae</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -9582,7 +9582,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -9798,7 +9798,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -11230,7 +11230,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -11265,7 +11265,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>grass</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Rosaceae</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -12374,7 +12374,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Rosaceae</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -13086,7 +13086,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -15390,7 +15390,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -15425,7 +15425,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>grass</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -16246,7 +16246,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -16822,7 +16822,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -16857,7 +16857,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>grass</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
